--- a/ThreadsGrid.xlsx
+++ b/ThreadsGrid.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TWÖRK\CODE\RemoveBackground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332D0B7-1283-4EF0-94F7-5542DA11C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A880F1B4-FAC4-46FD-AB41-5E410A610D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19400" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Connect-8" sheetId="2" r:id="rId1"/>
+    <sheet name="Connect-4" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t>START</t>
   </si>
@@ -89,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -291,6 +292,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -321,6 +333,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -382,6 +405,80 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -390,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,16 +552,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +579,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,22 +591,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,11 +923,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E43AE5-322C-48A4-B0A0-321A33E89217}">
+  <dimension ref="B1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+    </row>
+    <row r="2" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52">
+        <v>2</v>
+      </c>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="13"/>
+      <c r="K3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="13"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="25"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="44"/>
+    </row>
+    <row r="6" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16">
+        <v>3</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
+        <v>3</v>
+      </c>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,47 +1271,47 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="22"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="22"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="22"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -868,13 +1322,13 @@
       </c>
       <c r="H5" s="6"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="22"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
@@ -883,21 +1337,21 @@
       <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="22"/>
+      <c r="S6" s="23"/>
     </row>
     <row r="7" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
@@ -906,25 +1360,25 @@
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="4"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="R7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -935,9 +1389,9 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>4</v>
       </c>
       <c r="L8" s="14"/>
@@ -948,39 +1402,39 @@
       <c r="Q8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
@@ -992,10 +1446,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="32">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="35">
         <v>1</v>
       </c>
       <c r="M11" s="17"/>
@@ -1009,37 +1463,37 @@
     </row>
     <row r="12" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="36" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1047,20 +1501,20 @@
       <c r="G13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="22" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="28" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="8"/>
@@ -1078,20 +1532,20 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="29" t="s">
         <v>6</v>
       </c>
       <c r="N14" s="3"/>
@@ -1102,40 +1556,40 @@
     </row>
     <row r="15" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="33"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1148,13 +1602,13 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="36">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="39">
         <v>2</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
